--- a/biology/Botanique/Gérard_Ducerf/Gérard_Ducerf.xlsx
+++ b/biology/Botanique/Gérard_Ducerf/Gérard_Ducerf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Ducerf</t>
+          <t>Gérard_Ducerf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Ducerf, né le 12 juillet 1949, est un botaniste, auteur et conférencier français, ayant publié des ouvrages sur les plantes bioindicatrices.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Ducerf</t>
+          <t>Gérard_Ducerf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Ducerf est un éleveur de bovins de Briant contraint d’arrêter son exploitation en 1979 à la suite d'un grave accident. Autodidacte, il se forme alors à la botanique et collecte des plantes médicinales pour les laboratoires. Son intérêt pour la phytosociologie l'amène à découvrir les propriétés bioindicatrices des plantes. Aujourd'hui botaniste, Gérard Ducerf intervient depuis la fin des années 1980 auprès de différentes structures publiques, groupements d'agriculteurs ou de conservatoires de la nature[1],[2].
-En 1988, il fonde avec Françoise Armand-Martinez l'entreprise Promonature, à la fois bureau d'études floristiques, centre de formation, éditeur et agence de photos de botanique[3]. Il y développe une méthode d'analyse[4],[5] des plantes bioindicatrices pour établir des diagnostics de sols dynamiques, permettant de comprendre ce qui s'est passé et ce que le sol peut devenir grâce à l'inventaire de la flore spontanée[6],[7].
-Au début des années 2010, il ravive l'association qui gère le verger conservatoire du Brionnais et en devient président[8],[9].
-Gérard Ducerf anime régulièrement des conférences auprès du grand public[10],[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Ducerf est un éleveur de bovins de Briant contraint d’arrêter son exploitation en 1979 à la suite d'un grave accident. Autodidacte, il se forme alors à la botanique et collecte des plantes médicinales pour les laboratoires. Son intérêt pour la phytosociologie l'amène à découvrir les propriétés bioindicatrices des plantes. Aujourd'hui botaniste, Gérard Ducerf intervient depuis la fin des années 1980 auprès de différentes structures publiques, groupements d'agriculteurs ou de conservatoires de la nature,.
+En 1988, il fonde avec Françoise Armand-Martinez l'entreprise Promonature, à la fois bureau d'études floristiques, centre de formation, éditeur et agence de photos de botanique. Il y développe une méthode d'analyse, des plantes bioindicatrices pour établir des diagnostics de sols dynamiques, permettant de comprendre ce qui s'est passé et ce que le sol peut devenir grâce à l'inventaire de la flore spontanée,.
+Au début des années 2010, il ravive l'association qui gère le verger conservatoire du Brionnais et en devient président,.
+Gérard Ducerf anime régulièrement des conférences auprès du grand public,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Ducerf</t>
+          <t>Gérard_Ducerf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,20 +559,57 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il rédige une dizaine de livres sur la botanique.
-Son encyclopédie des plantes bioindicatrices, alimentaires et  médicinales, qui présente plus de 750 plantes en 3 volumes, est devenue un ouvrage de référence[Pour qui ?][12]. Il décrit les plantes bioindicatrices des champs et prairies, pour aider les agriculteurs et jardiniers à évaluer les caractéristiques de leurs sols, l'histoire de ces sols et leurs besoins et potentialités agroécologiques ; à partir de l'observation des plantes qui y vivent spontanément. Son fascicule des conditions de levée de dormance des plantes bio-indicatrices décrit les conditions de levées de dormance des graines de nombreuses plantes.
-Vulgarisateur, il met à disposition des photos de plantes dans leur milieu, ainsi que des clés simplifiées pour faciliter l'accès aux non-spécialistes[13].
-Principaux ouvrages
-Gérard Ducerf, L'encyclopédie des plantes bio-indicatrices alimentaires et médicinales : guide de diagnostic des sols, vol. 1, Briant, Éd. Promonature, 2014, 3e éd. (1re éd. 2005), 352 p., Broché 29 x 20 x 2,5 cm (ISBN 9782951925878).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rédige une dizaine de livres sur la botanique.
+Son encyclopédie des plantes bioindicatrices, alimentaires et  médicinales, qui présente plus de 750 plantes en 3 volumes, est devenue un ouvrage de référence[Pour qui ?]. Il décrit les plantes bioindicatrices des champs et prairies, pour aider les agriculteurs et jardiniers à évaluer les caractéristiques de leurs sols, l'histoire de ces sols et leurs besoins et potentialités agroécologiques ; à partir de l'observation des plantes qui y vivent spontanément. Son fascicule des conditions de levée de dormance des plantes bio-indicatrices décrit les conditions de levées de dormance des graines de nombreuses plantes.
+Vulgarisateur, il met à disposition des photos de plantes dans leur milieu, ainsi que des clés simplifiées pour faciliter l'accès aux non-spécialistes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gérard_Ducerf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Ducerf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principaux ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gérard Ducerf, L'encyclopédie des plantes bio-indicatrices alimentaires et médicinales : guide de diagnostic des sols, vol. 1, Briant, Éd. Promonature, 2014, 3e éd. (1re éd. 2005), 352 p., Broché 29 x 20 x 2,5 cm (ISBN 9782951925878).
 Gérard Ducerf et Camille Thiry, L'encyclopédie des plantes bio-indicatrices alimentaires et médicinales : guide de diagnostic des sols, vol. 2, Briant, Éd. Promonature, 2003, 278 p. (ISBN 2-9519258-0-8, BNF 38953985).
 Gérard Ducerf, L'encyclopédie des plantes bio-indicatrices alimentaires et médicinales : guide de diagnostic des sols, vol. 3, Briant, Éd. Promonature, 2013, 1re éd., 351 p., Broché 29 x 20 x 24 cm (ISBN 9791091115001).
 Gérard Ducerf, Fascicule des conditions de levée de dormance des plantes bio-indicatrices : Outil de diagnostic des sols, Briant, Éd. Promonature, 2015, 2e éd., 40 p., Broché 24 x 21 x 5 cm (ISBN 9791091115018).
 Gérard Ducerf, Guide ethnobotanique de phytothérapie, Briant, Promonature, 2006, 112 p. (ISBN 2-9519258-3-2, BNF 40967705).
-Gérard Ducerf, Diana Ubarrechena et George Oxley, Manifeste gourmand des herbes folles : Se faire du bien en dégustant les plantes sauvages, Paris, Du Toucan Éditions, 2013, 356 p., 28 x 21 cm (ISBN 9782810005314)[14].
-Gérard Ducerf et Moutsie, Récolter les jeunes pousses des plantes sauvages comestibles : En toute confiance, sans risque de confusion !, Escalquens/01-Péronnas, Édition de Terran, 2021, 2e éd. (1re éd. 2015), 304 p., 16 x 24 cm (ISBN 9782359811650)[15].
-Gérard Ducerf (préf. Thierry Thévenin et Rémi Geneston), La flore photo, flore de France et des contrées limitrophes : Volume 1, Clés des familles, vol. 1 : Clés des familles, Briant, Éd. Promonature, 2018, 1029 p., Grand format 30 x 20,8 x 5,5 cm (ISBN 9791091115049)[16].</t>
+Gérard Ducerf, Diana Ubarrechena et George Oxley, Manifeste gourmand des herbes folles : Se faire du bien en dégustant les plantes sauvages, Paris, Du Toucan Éditions, 2013, 356 p., 28 x 21 cm (ISBN 9782810005314).
+Gérard Ducerf et Moutsie, Récolter les jeunes pousses des plantes sauvages comestibles : En toute confiance, sans risque de confusion !, Escalquens/01-Péronnas, Édition de Terran, 2021, 2e éd. (1re éd. 2015), 304 p., 16 x 24 cm (ISBN 9782359811650).
+Gérard Ducerf (préf. Thierry Thévenin et Rémi Geneston), La flore photo, flore de France et des contrées limitrophes : Volume 1, Clés des familles, vol. 1 : Clés des familles, Briant, Éd. Promonature, 2018, 1029 p., Grand format 30 x 20,8 x 5,5 cm (ISBN 9791091115049).</t>
         </is>
       </c>
     </row>
